--- a/Leçon chimie/LC 27/LC 27-Solubilité .xlsx
+++ b/Leçon chimie/LC 27/LC 27-Solubilité .xlsx
@@ -4,12 +4,12 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="20910"/>
   <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="15060" firstSheet="1" activeTab="2"/>
+    <workbookView xWindow="9700" yWindow="0" windowWidth="25600" windowHeight="15060" activeTab="2"/>
   </bookViews>
   <sheets>
-    <sheet name="Exp 1 = Pile Daniell " sheetId="1" r:id="rId1"/>
-    <sheet name="Exp 2 = Ks acide benzoïque  (2)" sheetId="5" r:id="rId2"/>
-    <sheet name="Exp 2 = Ks acide benzoïque 25°C" sheetId="2" r:id="rId3"/>
+    <sheet name="Exp 2 = Ks acide benzoïque à 25" sheetId="6" r:id="rId1"/>
+    <sheet name="Acidification des océans" sheetId="7" r:id="rId2"/>
+    <sheet name="Ks acide benz à différentes T°C" sheetId="2" r:id="rId3"/>
   </sheets>
   <calcPr calcId="140001" concurrentCalc="0"/>
   <extLst>
@@ -30,31 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="67">
-  <si>
-    <t xml:space="preserve">Expérience 1 : Force électromotrice de la pile Daniell  </t>
-  </si>
-  <si>
-    <t>Mise en place de la pile</t>
-  </si>
-  <si>
-    <t>demi-pile de cuivre</t>
-  </si>
-  <si>
-    <t>concentration</t>
-  </si>
-  <si>
-    <t>volume</t>
-  </si>
-  <si>
-    <t>0,1 mol/L</t>
-  </si>
-  <si>
-    <t>50mL</t>
-  </si>
-  <si>
-    <t>demi-pile de zinc</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="62">
   <si>
     <t xml:space="preserve">préparation de la solution saturée </t>
   </si>
@@ -83,33 +59,6 @@
     <t>ln(incertitude)</t>
   </si>
   <si>
-    <t>fem Pile Daniell (V)</t>
-  </si>
-  <si>
-    <t>Constante de Faraday s.A/mol</t>
-  </si>
-  <si>
-    <t>R (J/(mol.K))</t>
-  </si>
-  <si>
-    <t>Constante d'équlibre K°</t>
-  </si>
-  <si>
-    <t>Température de la salle (K)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Constantes </t>
-  </si>
-  <si>
-    <t>Enthalpie libre standard ∆rG° (kJ/mol))</t>
-  </si>
-  <si>
-    <t>Valeurs théoriques</t>
-  </si>
-  <si>
-    <t>Valeurs expérimentales</t>
-  </si>
-  <si>
     <t>Valeur</t>
   </si>
   <si>
@@ -173,12 +122,6 @@
     <t>titrage pH métrique de la solution d'acide benzoïque à 25°C</t>
   </si>
   <si>
-    <t>titrage colorimétrique de la solution d'acide benzoïque à 25°C</t>
-  </si>
-  <si>
-    <t>Expérience 2 : détermination du Ks de l'acide benzoïque en fonction de la température</t>
-  </si>
-  <si>
     <t>titrage pH métrique de la solution d'acide benzoïque à 0°C</t>
   </si>
   <si>
@@ -221,9 +164,6 @@
     <t>Titrer avec la soude à 2.10-2 mol/L</t>
   </si>
   <si>
-    <t>Ne pas la faire</t>
-  </si>
-  <si>
     <t>Expérience 2 : détermination du Ks  à différentes températures</t>
   </si>
   <si>
@@ -231,13 +171,58 @@
   </si>
   <si>
     <t>la pente est égale à -∆rH°/R</t>
+  </si>
+  <si>
+    <t>titrage pH métrique ou coloriméétrique  de la solution d'acide benzoïque à 25°C</t>
+  </si>
+  <si>
+    <t>Masse molaire NaOH (g/mol)</t>
+  </si>
+  <si>
+    <t>Expérience 2 : détermination du Ks de l'acide benzoïque à 25°C</t>
+  </si>
+  <si>
+    <t>Ks</t>
+  </si>
+  <si>
+    <t>Ka1</t>
+  </si>
+  <si>
+    <t>Ka2</t>
+  </si>
+  <si>
+    <t>pH</t>
+  </si>
+  <si>
+    <t>pH : 8,2</t>
+  </si>
+  <si>
+    <t>s (mol/L)</t>
+  </si>
+  <si>
+    <t>cmassique (g/L)</t>
+  </si>
+  <si>
+    <t>∆</t>
+  </si>
+  <si>
+    <t>Masse molaire(g/mol)</t>
+  </si>
+  <si>
+    <t>[Ca2+] (mol/L)</t>
+  </si>
+  <si>
+    <t>Influence de la présence d'ions Ca2+ dans l'océan</t>
+  </si>
+  <si>
+    <t>Influence du pH des océans sur la sollubilité de CaCO3</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="14" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -269,12 +254,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <u/>
       <sz val="11"/>
       <color theme="10"/>
@@ -292,12 +271,6 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -311,32 +284,6 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="14"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="14"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="14"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="14"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="21">
     <fill>
@@ -348,12 +295,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -459,8 +400,14 @@
         <bgColor rgb="FF000000"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="33">
+  <borders count="19">
     <border>
       <left/>
       <right/>
@@ -469,39 +416,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="medium">
-        <color auto="1"/>
-      </left>
-      <right/>
-      <top style="medium">
-        <color auto="1"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color auto="1"/>
-      </right>
-      <top style="medium">
-        <color auto="1"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color auto="1"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color auto="1"/>
       </left>
@@ -512,119 +426,6 @@
         <color auto="1"/>
       </top>
       <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="medium">
-        <color auto="1"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="medium">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thick">
-        <color auto="1"/>
-      </left>
-      <right/>
-      <top style="thick">
-        <color auto="1"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thick">
-        <color auto="1"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thick">
-        <color auto="1"/>
-      </right>
-      <top style="thick">
-        <color auto="1"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thick">
-        <color auto="1"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thick">
-        <color auto="1"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thick">
-        <color auto="1"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom style="thick">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="thick">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thick">
-        <color auto="1"/>
-      </right>
-      <top/>
-      <bottom style="thick">
         <color auto="1"/>
       </bottom>
       <diagonal/>
@@ -841,189 +642,147 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="51">
+  <cellStyleXfs count="55">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="101">
+  <cellXfs count="61">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="18" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="20" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="4" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="11" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="29" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="11" fontId="8" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="31" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="28" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="32" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="11" fontId="0" fillId="15" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="8" fillId="16" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="17" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="18" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="11" fontId="8" fillId="20" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="11" fontId="0" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="11" fontId="0" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="11" fontId="2" fillId="8" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="11" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="17" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="11" fontId="0" fillId="14" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="11" fontId="6" fillId="19" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="11" fontId="2" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="11" fontId="0" fillId="0" borderId="31" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="11" fontId="8" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="11" fontId="9" fillId="19" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="11" fontId="6" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="11" fontId="7" fillId="18" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="12" fillId="11" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="11" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="11" fontId="12" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="12" fillId="7" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="11" fontId="13" fillId="8" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="11" fontId="12" fillId="0" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="11" fontId="12" fillId="15" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="13" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="29" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="29" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="51">
+  <cellStyles count="55">
     <cellStyle name="Lien hypertexte" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Lien hypertexte" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Lien hypertexte" xfId="5" builtinId="8" hidden="1"/>
@@ -1049,6 +808,8 @@
     <cellStyle name="Lien hypertexte" xfId="45" builtinId="8" hidden="1"/>
     <cellStyle name="Lien hypertexte" xfId="47" builtinId="8" hidden="1"/>
     <cellStyle name="Lien hypertexte" xfId="49" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="51" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="53" builtinId="8" hidden="1"/>
     <cellStyle name="Lien hypertexte visité" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Lien hypertexte visité" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Lien hypertexte visité" xfId="6" builtinId="9" hidden="1"/>
@@ -1074,6 +835,8 @@
     <cellStyle name="Lien hypertexte visité" xfId="46" builtinId="9" hidden="1"/>
     <cellStyle name="Lien hypertexte visité" xfId="48" builtinId="9" hidden="1"/>
     <cellStyle name="Lien hypertexte visité" xfId="50" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="52" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="54" builtinId="9" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1149,7 +912,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Exp 2 = Ks acide benzoïque 25°C'!$G$45</c:f>
+              <c:f>'Ks acide benz à différentes T°C'!$G$45</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1179,7 +942,7 @@
           </c:trendline>
           <c:xVal>
             <c:numRef>
-              <c:f>'Exp 2 = Ks acide benzoïque 25°C'!$G$46:$G$49</c:f>
+              <c:f>'Ks acide benz à différentes T°C'!$G$46:$G$49</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
@@ -1200,7 +963,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'Exp 2 = Ks acide benzoïque 25°C'!$F$46:$F$49</c:f>
+              <c:f>'Ks acide benz à différentes T°C'!$F$46:$F$49</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
@@ -1229,11 +992,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="2107855112"/>
-        <c:axId val="2113235976"/>
+        <c:axId val="2139169976"/>
+        <c:axId val="2139456728"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="2107855112"/>
+        <c:axId val="2139169976"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1269,12 +1032,12 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2113235976"/>
+        <c:crossAx val="2139456728"/>
         <c:crossesAt val="-5.0"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="2113235976"/>
+        <c:axId val="2139456728"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="-3.0"/>
@@ -1311,7 +1074,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2107855112"/>
+        <c:crossAx val="2139169976"/>
         <c:crossesAt val="-4.3"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1329,6 +1092,49 @@
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>317500</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>635000</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>25400</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Image 1"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3568700" y="292100"/>
+          <a:ext cx="4597400" cy="711200"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -1618,7 +1424,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1626,533 +1432,191 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G22"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A19" sqref="A19"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="14" x14ac:dyDescent="0"/>
-  <cols>
-    <col min="1" max="1" width="31.6640625" customWidth="1"/>
-    <col min="3" max="3" width="14.6640625" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:7">
-      <c r="A1" s="93" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="94"/>
-      <c r="C1" s="94"/>
-      <c r="D1" s="94"/>
-      <c r="E1" s="94"/>
-      <c r="F1" s="94"/>
-      <c r="G1" s="94"/>
-    </row>
-    <row r="2" spans="1:7" ht="15" thickBot="1">
-      <c r="B2" s="25" t="s">
-        <v>1</v>
-      </c>
-      <c r="C2" s="25"/>
-      <c r="D2" s="25"/>
-      <c r="E2" s="25"/>
-    </row>
-    <row r="3" spans="1:7" ht="15" thickBot="1">
-      <c r="C3" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="D3" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
-      <c r="A4" s="95" t="s">
-        <v>2</v>
-      </c>
-      <c r="B4" s="96"/>
-      <c r="C4" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="D4" s="5" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" ht="15" thickBot="1">
-      <c r="A5" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B5" s="2"/>
-      <c r="C5" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="D5" s="6" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7">
-      <c r="A7" s="28" t="s">
-        <v>24</v>
-      </c>
-      <c r="B7" s="5"/>
-    </row>
-    <row r="8" spans="1:7">
-      <c r="A8" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="B8" s="5">
-        <v>1.1000000000000001</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7">
-      <c r="A9" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="B9" s="5">
-        <f>-2*B20*B8/1000</f>
-        <v>-212.26773238000001</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7">
-      <c r="A10" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="B10" s="27">
-        <f>EXP(-B9*1000/(B21*B22))</f>
-        <v>9.129145763283992E+36</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7">
-      <c r="A12" s="28" t="s">
-        <v>25</v>
-      </c>
-      <c r="B12" s="28"/>
-    </row>
-    <row r="13" spans="1:7">
-      <c r="A13" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="B13" s="5">
-        <v>1.1000000000000001</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7">
-      <c r="A14" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="B14" s="5">
-        <f>-2*B20*B13/1000</f>
-        <v>-212.26773238000001</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7">
-      <c r="A15" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="B15" s="27">
-        <f>EXP(-B14*1000/(B21*B22))</f>
-        <v>9.129145763283992E+36</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2">
-      <c r="A19" s="28" t="s">
-        <v>22</v>
-      </c>
-      <c r="B19" s="5"/>
-    </row>
-    <row r="20" spans="1:2">
-      <c r="A20" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="B20" s="26">
-        <v>96485.332899999994</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2">
-      <c r="A21" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="B21" s="5">
-        <v>8.3140000000000001</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2">
-      <c r="A22" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="B22" s="5">
-        <v>300</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="2">
-    <mergeCell ref="A1:G1"/>
-    <mergeCell ref="A4:B4"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" verticalDpi="0"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G25"/>
+  <dimension ref="A1:G18"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="85" workbookViewId="0">
-      <selection activeCell="F26" sqref="F26"/>
+      <selection activeCell="A37" sqref="A37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="54.83203125" customWidth="1"/>
-    <col min="2" max="2" width="28" customWidth="1"/>
+    <col min="1" max="1" width="42.6640625" customWidth="1"/>
+    <col min="2" max="2" width="24.1640625" customWidth="1"/>
     <col min="3" max="3" width="12.1640625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="15.5" customWidth="1"/>
-    <col min="6" max="6" width="25.6640625" customWidth="1"/>
+    <col min="6" max="6" width="22.83203125" customWidth="1"/>
     <col min="7" max="7" width="19.5" customWidth="1"/>
     <col min="8" max="8" width="16.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="18">
-      <c r="A1" s="68" t="s">
+    <row r="1" spans="1:7">
+      <c r="A1" s="19" t="s">
+        <v>49</v>
+      </c>
+      <c r="B1" s="20"/>
+      <c r="C1" s="20"/>
+      <c r="D1" s="20"/>
+      <c r="E1" s="20"/>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="A3" s="51" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" s="51"/>
+      <c r="C3" s="51"/>
+      <c r="D3" s="14"/>
+      <c r="F3" s="12" t="s">
         <v>48</v>
       </c>
-      <c r="B1" s="69"/>
-      <c r="C1" s="69"/>
-      <c r="D1" s="69"/>
-      <c r="E1" s="69"/>
-      <c r="F1" s="70"/>
-      <c r="G1" s="70"/>
-    </row>
-    <row r="2" spans="1:7" ht="18">
-      <c r="A2" s="70"/>
-      <c r="B2" s="70"/>
-      <c r="C2" s="70"/>
-      <c r="D2" s="70"/>
-      <c r="E2" s="70"/>
-      <c r="F2" s="70"/>
-      <c r="G2" s="70"/>
-    </row>
-    <row r="3" spans="1:7" ht="18">
-      <c r="A3" s="71" t="s">
-        <v>8</v>
-      </c>
-      <c r="B3" s="71"/>
-      <c r="C3" s="71"/>
-      <c r="D3" s="72"/>
-      <c r="E3" s="70"/>
-      <c r="F3" s="73" t="s">
-        <v>27</v>
-      </c>
-      <c r="G3" s="70">
+      <c r="G3">
         <v>39.997</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="18">
-      <c r="A4" s="74" t="s">
-        <v>29</v>
-      </c>
-      <c r="B4" s="75" t="s">
+    <row r="4" spans="1:7">
+      <c r="A4" s="17" t="s">
+        <v>12</v>
+      </c>
+      <c r="B4" s="18" t="s">
+        <v>1</v>
+      </c>
+      <c r="C4" s="17" t="s">
         <v>9</v>
       </c>
-      <c r="C4" s="74" t="s">
-        <v>26</v>
-      </c>
-      <c r="D4" s="74" t="s">
-        <v>10</v>
-      </c>
-      <c r="E4" s="70"/>
-      <c r="F4" s="76"/>
-      <c r="G4" s="70"/>
-    </row>
-    <row r="5" spans="1:7" ht="18">
-      <c r="A5" s="77" t="s">
-        <v>41</v>
-      </c>
-      <c r="B5" s="78" t="s">
-        <v>30</v>
-      </c>
-      <c r="C5" s="77">
+      <c r="D4" s="17" t="s">
+        <v>2</v>
+      </c>
+      <c r="F4" s="13"/>
+    </row>
+    <row r="5" spans="1:7">
+      <c r="A5" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B5" s="16" t="s">
+        <v>13</v>
+      </c>
+      <c r="C5" s="1">
         <v>0.02</v>
       </c>
-      <c r="D5" s="79">
+      <c r="D5" s="11">
         <v>2.9999999999999997E-4</v>
       </c>
-      <c r="E5" s="70"/>
-      <c r="F5" s="70"/>
-      <c r="G5" s="70"/>
-    </row>
-    <row r="6" spans="1:7" ht="18">
-      <c r="A6" s="70"/>
-      <c r="B6" s="70"/>
-      <c r="C6" s="70"/>
-      <c r="D6" s="70"/>
-      <c r="E6" s="70"/>
-      <c r="F6" s="70"/>
-      <c r="G6" s="70"/>
-    </row>
-    <row r="7" spans="1:7" ht="18">
-      <c r="A7" s="70"/>
-      <c r="B7" s="70"/>
-      <c r="C7" s="70"/>
-      <c r="D7" s="70"/>
-      <c r="E7" s="70"/>
-      <c r="F7" s="70"/>
-      <c r="G7" s="70"/>
-    </row>
-    <row r="8" spans="1:7" ht="18">
-      <c r="A8" s="97" t="s">
-        <v>35</v>
-      </c>
-      <c r="B8" s="97"/>
-      <c r="C8" s="97"/>
-      <c r="D8" s="97"/>
-      <c r="E8" s="70"/>
-      <c r="F8" s="70"/>
-      <c r="G8" s="70"/>
-    </row>
-    <row r="9" spans="1:7" ht="18">
-      <c r="A9" s="74" t="s">
-        <v>29</v>
-      </c>
-      <c r="B9" s="75" t="s">
+    </row>
+    <row r="8" spans="1:7">
+      <c r="A8" s="52" t="s">
+        <v>18</v>
+      </c>
+      <c r="B8" s="52"/>
+      <c r="C8" s="52"/>
+      <c r="D8" s="52"/>
+    </row>
+    <row r="9" spans="1:7">
+      <c r="A9" s="17" t="s">
+        <v>12</v>
+      </c>
+      <c r="B9" s="18" t="s">
+        <v>1</v>
+      </c>
+      <c r="C9" s="17" t="s">
         <v>9</v>
       </c>
-      <c r="C9" s="74" t="s">
-        <v>26</v>
-      </c>
-      <c r="D9" s="74" t="s">
-        <v>10</v>
-      </c>
-      <c r="E9" s="70"/>
-      <c r="F9" s="70"/>
-      <c r="G9" s="70"/>
-    </row>
-    <row r="10" spans="1:7" ht="18">
-      <c r="A10" s="77" t="s">
-        <v>31</v>
-      </c>
-      <c r="B10" s="78" t="s">
-        <v>33</v>
-      </c>
-      <c r="C10" s="77">
+      <c r="D9" s="17" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
+      <c r="A10" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B10" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="C10" s="1">
         <v>0.4</v>
       </c>
-      <c r="D10" s="77">
+      <c r="D10" s="1">
         <v>0.05</v>
       </c>
-      <c r="E10" s="70"/>
-      <c r="F10" s="70"/>
-      <c r="G10" s="70"/>
-    </row>
-    <row r="11" spans="1:7" ht="18">
-      <c r="A11" s="77" t="s">
-        <v>40</v>
-      </c>
-      <c r="B11" s="78" t="s">
-        <v>32</v>
-      </c>
-      <c r="C11" s="77">
+    </row>
+    <row r="11" spans="1:7">
+      <c r="A11" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B11" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="C11" s="1">
         <v>0.1</v>
       </c>
-      <c r="D11" s="79">
+      <c r="D11" s="11">
         <v>1E-4</v>
       </c>
-      <c r="E11" s="70"/>
-      <c r="F11" s="70"/>
-      <c r="G11" s="70"/>
-    </row>
-    <row r="12" spans="1:7" ht="18">
-      <c r="A12" s="77" t="s">
-        <v>34</v>
-      </c>
-      <c r="B12" s="80" t="s">
-        <v>28</v>
-      </c>
-      <c r="C12" s="77">
+    </row>
+    <row r="12" spans="1:7">
+      <c r="A12" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B12" s="22" t="s">
+        <v>11</v>
+      </c>
+      <c r="C12" s="1">
         <f>(C10/G3)/C11</f>
         <v>0.10000750056254219</v>
       </c>
-      <c r="D12" s="79">
+      <c r="D12" s="11">
         <f>C12*SQRT((D10/C10)^2+(D11/C11)^2)</f>
         <v>1.250133759391975E-2</v>
       </c>
-      <c r="E12" s="70"/>
-      <c r="F12" s="70"/>
-      <c r="G12" s="70"/>
-    </row>
-    <row r="13" spans="1:7" ht="18">
-      <c r="A13" s="70"/>
-      <c r="B13" s="70"/>
-      <c r="C13" s="70"/>
-      <c r="D13" s="70"/>
-      <c r="E13" s="70"/>
-      <c r="F13" s="70"/>
-      <c r="G13" s="70"/>
-    </row>
-    <row r="14" spans="1:7" ht="15" customHeight="1">
-      <c r="A14" s="70"/>
-      <c r="B14" s="70"/>
-      <c r="C14" s="70"/>
-      <c r="D14" s="70"/>
-      <c r="E14" s="70"/>
-      <c r="F14" s="70"/>
-      <c r="G14" s="70"/>
-    </row>
-    <row r="15" spans="1:7" ht="18">
-      <c r="A15" s="81" t="s">
-        <v>46</v>
-      </c>
-      <c r="B15" s="82"/>
-      <c r="C15" s="82"/>
-      <c r="D15" s="83"/>
-      <c r="E15" s="70"/>
-      <c r="F15" s="70"/>
-      <c r="G15" s="70"/>
-    </row>
-    <row r="16" spans="1:7" ht="18">
-      <c r="A16" s="84" t="s">
-        <v>29</v>
-      </c>
-      <c r="B16" s="85" t="s">
+    </row>
+    <row r="14" spans="1:7" ht="15" customHeight="1"/>
+    <row r="15" spans="1:7">
+      <c r="A15" s="28" t="s">
+        <v>47</v>
+      </c>
+      <c r="B15" s="26"/>
+      <c r="C15" s="26"/>
+      <c r="D15" s="30"/>
+    </row>
+    <row r="16" spans="1:7">
+      <c r="A16" s="29" t="s">
+        <v>12</v>
+      </c>
+      <c r="B16" s="15" t="s">
+        <v>1</v>
+      </c>
+      <c r="C16" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C16" s="77" t="s">
-        <v>26</v>
-      </c>
-      <c r="D16" s="86" t="s">
-        <v>10</v>
-      </c>
-      <c r="E16" s="70"/>
-      <c r="F16" s="70"/>
-      <c r="G16" s="70"/>
-    </row>
-    <row r="17" spans="1:7" ht="18">
-      <c r="A17" s="84" t="s">
-        <v>44</v>
-      </c>
-      <c r="B17" s="78" t="s">
-        <v>11</v>
-      </c>
-      <c r="C17" s="87">
-        <v>5.0000000000000001E-3</v>
-      </c>
-      <c r="D17" s="88">
+      <c r="D16" s="27" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4">
+      <c r="A17" s="29" t="s">
+        <v>27</v>
+      </c>
+      <c r="B17" s="16" t="s">
+        <v>3</v>
+      </c>
+      <c r="C17" s="43">
+        <v>4.1000000000000003E-3</v>
+      </c>
+      <c r="D17" s="47">
         <v>5.0000000000000002E-5</v>
       </c>
-      <c r="E17" s="70"/>
-      <c r="F17" s="70"/>
-      <c r="G17" s="70"/>
-    </row>
-    <row r="18" spans="1:7" ht="18">
-      <c r="A18" s="89" t="s">
-        <v>45</v>
-      </c>
-      <c r="B18" s="89"/>
-      <c r="C18" s="89">
+    </row>
+    <row r="18" spans="1:4">
+      <c r="A18" s="32" t="s">
+        <v>28</v>
+      </c>
+      <c r="B18" s="32"/>
+      <c r="C18" s="32">
         <f>(C12*C17)/C5</f>
-        <v>2.5001875140635548E-2</v>
-      </c>
-      <c r="D18" s="90">
+        <v>2.0501537615321152E-2</v>
+      </c>
+      <c r="D18" s="33">
         <f>C18*SQRT( (D12/C12)^2 + (D17/C17)^2+(D5/C5)^2 )</f>
-        <v>3.1576685346153778E-3</v>
-      </c>
-      <c r="E18" s="70"/>
-      <c r="F18" s="70"/>
-      <c r="G18" s="70"/>
-    </row>
-    <row r="19" spans="1:7" ht="18">
-      <c r="A19" s="70"/>
-      <c r="B19" s="70"/>
-      <c r="C19" s="70"/>
-      <c r="D19" s="70"/>
-      <c r="E19" s="70"/>
-      <c r="F19" s="70"/>
-      <c r="G19" s="70"/>
-    </row>
-    <row r="20" spans="1:7" ht="18">
-      <c r="A20" s="70"/>
-      <c r="B20" s="70"/>
-      <c r="C20" s="70"/>
-      <c r="D20" s="70"/>
-      <c r="E20" s="70"/>
-      <c r="F20" s="70"/>
-      <c r="G20" s="70"/>
-    </row>
-    <row r="21" spans="1:7" ht="18">
-      <c r="A21" s="82" t="s">
-        <v>47</v>
-      </c>
-      <c r="B21" s="82"/>
-      <c r="C21" s="82"/>
-      <c r="D21" s="91"/>
-      <c r="E21" s="70"/>
-      <c r="F21" s="70"/>
-      <c r="G21" s="70"/>
-    </row>
-    <row r="22" spans="1:7" ht="18">
-      <c r="A22" s="77" t="s">
-        <v>29</v>
-      </c>
-      <c r="B22" s="85" t="s">
-        <v>9</v>
-      </c>
-      <c r="C22" s="77" t="s">
-        <v>26</v>
-      </c>
-      <c r="D22" s="86" t="s">
-        <v>10</v>
-      </c>
-      <c r="E22" s="70"/>
-      <c r="F22" s="70"/>
-      <c r="G22" s="70"/>
-    </row>
-    <row r="23" spans="1:7" ht="18">
-      <c r="A23" s="77" t="s">
-        <v>44</v>
-      </c>
-      <c r="B23" s="78" t="s">
-        <v>11</v>
-      </c>
-      <c r="C23" s="87">
-        <v>5.0000000000000001E-3</v>
-      </c>
-      <c r="D23" s="92">
-        <v>0.05</v>
-      </c>
-      <c r="E23" s="70"/>
-      <c r="F23" s="70"/>
-      <c r="G23" s="70"/>
-    </row>
-    <row r="24" spans="1:7" ht="18">
-      <c r="A24" s="89" t="s">
-        <v>45</v>
-      </c>
-      <c r="B24" s="89"/>
-      <c r="C24" s="89">
-        <f>(C12*C23)/C5</f>
-        <v>2.5001875140635548E-2</v>
-      </c>
-      <c r="D24" s="90">
-        <f>C24*SQRT( (D12/C12)^2 + (D23/C23)^2+(D5/C5)^2 )</f>
-        <v>0.25003856585733214</v>
-      </c>
-      <c r="E24" s="70"/>
-      <c r="F24" s="70"/>
-      <c r="G24" s="70"/>
-    </row>
-    <row r="25" spans="1:7" ht="18">
-      <c r="A25" s="70"/>
-      <c r="B25" s="70"/>
-      <c r="C25" s="70"/>
-      <c r="D25" s="70"/>
-      <c r="E25" s="70"/>
-      <c r="F25" s="70"/>
-      <c r="G25" s="70"/>
+        <v>2.5932395658498984E-3</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -2168,12 +1632,151 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B2:E17"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G11" sqref="G11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <cols>
+    <col min="1" max="1" width="9.5" customWidth="1"/>
+    <col min="2" max="2" width="20.83203125" customWidth="1"/>
+    <col min="4" max="4" width="12.83203125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="12.1640625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:5" ht="35" customHeight="1">
+      <c r="B2" s="58" t="s">
+        <v>61</v>
+      </c>
+      <c r="C2" s="59"/>
+      <c r="D2" s="57"/>
+    </row>
+    <row r="3" spans="2:5">
+      <c r="B3" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="C3" s="1">
+        <f>10^(-8.3)</f>
+        <v>5.0118723362727114E-9</v>
+      </c>
+    </row>
+    <row r="4" spans="2:5">
+      <c r="B4" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="C4" s="1">
+        <f>10^(-6.4)</f>
+        <v>3.9810717055349618E-7</v>
+      </c>
+    </row>
+    <row r="5" spans="2:5">
+      <c r="B5" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="C5" s="1">
+        <f>10^(-10.3)</f>
+        <v>5.0118723362726993E-11</v>
+      </c>
+    </row>
+    <row r="6" spans="2:5">
+      <c r="B6" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="C6" s="1">
+        <v>8.1999999999999993</v>
+      </c>
+    </row>
+    <row r="7" spans="2:5">
+      <c r="B7" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="C7" s="11">
+        <f>SQRT(C3*(1+((10^(-C6))/C5)+(((10^(-C6))^2)/(C5*C4))))</f>
+        <v>8.0372210173446622E-4</v>
+      </c>
+    </row>
+    <row r="9" spans="2:5">
+      <c r="B9" t="s">
+        <v>54</v>
+      </c>
+      <c r="C9" s="55">
+        <v>8.0372210173446622E-4</v>
+      </c>
+    </row>
+    <row r="12" spans="2:5">
+      <c r="B12" s="56" t="s">
+        <v>60</v>
+      </c>
+      <c r="C12" s="56"/>
+      <c r="D12" s="56"/>
+      <c r="E12" s="57"/>
+    </row>
+    <row r="13" spans="2:5">
+      <c r="B13" t="s">
+        <v>58</v>
+      </c>
+      <c r="C13" t="s">
+        <v>56</v>
+      </c>
+      <c r="D13" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="14" spans="2:5">
+      <c r="B14">
+        <v>40.1</v>
+      </c>
+      <c r="C14">
+        <v>0.4269</v>
+      </c>
+      <c r="D14">
+        <f>C14/B14</f>
+        <v>1.0645885286783043E-2</v>
+      </c>
+    </row>
+    <row r="16" spans="2:5">
+      <c r="B16" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="C16" s="1">
+        <f>D14^2+4*C3</f>
+        <v>1.1335492102868875E-4</v>
+      </c>
+    </row>
+    <row r="17" spans="2:3">
+      <c r="B17" s="60" t="s">
+        <v>55</v>
+      </c>
+      <c r="C17" s="60">
+        <f>(-D14+SQRT(C16))/2</f>
+        <v>4.7075941425611667E-7</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="B2:C2"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <drawing r:id="rId1"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L50"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="85" workbookViewId="0">
-      <selection activeCell="J17" sqref="J17"/>
+    <sheetView tabSelected="1" topLeftCell="A18" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="85" workbookViewId="0">
+      <selection activeCell="G53" sqref="G53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14" x14ac:dyDescent="0"/>
@@ -2192,583 +1795,580 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8">
-      <c r="A1" s="36" t="s">
-        <v>64</v>
-      </c>
-      <c r="B1" s="37"/>
-      <c r="C1" s="37"/>
-      <c r="D1" s="37"/>
-      <c r="E1" s="37"/>
+      <c r="A1" s="19" t="s">
+        <v>44</v>
+      </c>
+      <c r="B1" s="20"/>
+      <c r="C1" s="20"/>
+      <c r="D1" s="20"/>
+      <c r="E1" s="20"/>
     </row>
     <row r="3" spans="1:8">
-      <c r="A3" s="38" t="s">
-        <v>8</v>
-      </c>
-      <c r="B3" s="38"/>
-      <c r="C3" s="38"/>
-      <c r="D3" s="31"/>
-      <c r="F3" s="29" t="s">
-        <v>27</v>
+      <c r="A3" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" s="21"/>
+      <c r="C3" s="21"/>
+      <c r="D3" s="14"/>
+      <c r="F3" s="12" t="s">
+        <v>10</v>
       </c>
       <c r="G3">
         <v>39.997</v>
       </c>
     </row>
     <row r="4" spans="1:8">
-      <c r="A4" s="34" t="s">
-        <v>29</v>
-      </c>
-      <c r="B4" s="35" t="s">
+      <c r="A4" s="17" t="s">
+        <v>12</v>
+      </c>
+      <c r="B4" s="18" t="s">
+        <v>1</v>
+      </c>
+      <c r="C4" s="17" t="s">
         <v>9</v>
       </c>
-      <c r="C4" s="34" t="s">
-        <v>26</v>
-      </c>
-      <c r="D4" s="34" t="s">
-        <v>10</v>
-      </c>
-      <c r="F4" s="30"/>
+      <c r="D4" s="17" t="s">
+        <v>2</v>
+      </c>
+      <c r="F4" s="13"/>
     </row>
     <row r="5" spans="1:8">
-      <c r="A5" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="B5" s="33" t="s">
-        <v>30</v>
-      </c>
-      <c r="C5" s="5">
+      <c r="A5" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B5" s="16" t="s">
+        <v>13</v>
+      </c>
+      <c r="C5" s="1">
         <v>0.02</v>
       </c>
-      <c r="D5" s="27">
+      <c r="D5" s="11">
         <v>2.9999999999999997E-4</v>
       </c>
     </row>
     <row r="6" spans="1:8">
-      <c r="F6" s="100" t="s">
-        <v>65</v>
-      </c>
-      <c r="G6" s="100"/>
-      <c r="H6" s="100"/>
+      <c r="F6" s="54" t="s">
+        <v>45</v>
+      </c>
+      <c r="G6" s="54"/>
+      <c r="H6" s="54"/>
     </row>
     <row r="7" spans="1:8">
-      <c r="F7" s="100"/>
-      <c r="G7" s="100"/>
-      <c r="H7" s="100"/>
+      <c r="F7" s="54"/>
+      <c r="G7" s="54"/>
+      <c r="H7" s="54"/>
     </row>
     <row r="8" spans="1:8">
-      <c r="A8" s="99" t="s">
-        <v>35</v>
-      </c>
-      <c r="B8" s="99"/>
-      <c r="C8" s="99"/>
-      <c r="D8" s="99"/>
-      <c r="F8" s="100"/>
-      <c r="G8" s="100"/>
-      <c r="H8" s="100"/>
+      <c r="A8" s="52" t="s">
+        <v>18</v>
+      </c>
+      <c r="B8" s="52"/>
+      <c r="C8" s="52"/>
+      <c r="D8" s="52"/>
+      <c r="F8" s="54"/>
+      <c r="G8" s="54"/>
+      <c r="H8" s="54"/>
     </row>
     <row r="9" spans="1:8">
-      <c r="A9" s="34" t="s">
-        <v>29</v>
-      </c>
-      <c r="B9" s="35" t="s">
+      <c r="A9" s="17" t="s">
+        <v>12</v>
+      </c>
+      <c r="B9" s="18" t="s">
+        <v>1</v>
+      </c>
+      <c r="C9" s="17" t="s">
         <v>9</v>
       </c>
-      <c r="C9" s="34" t="s">
-        <v>26</v>
-      </c>
-      <c r="D9" s="34" t="s">
-        <v>10</v>
-      </c>
-      <c r="F9" s="100"/>
-      <c r="G9" s="100"/>
-      <c r="H9" s="100"/>
+      <c r="D9" s="17" t="s">
+        <v>2</v>
+      </c>
+      <c r="F9" s="54"/>
+      <c r="G9" s="54"/>
+      <c r="H9" s="54"/>
     </row>
     <row r="10" spans="1:8">
-      <c r="A10" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="B10" s="33" t="s">
-        <v>33</v>
-      </c>
-      <c r="C10" s="5">
+      <c r="A10" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B10" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="C10" s="1">
         <v>0.4</v>
       </c>
-      <c r="D10" s="5">
+      <c r="D10" s="1">
         <v>0.05</v>
       </c>
-      <c r="F10" s="100"/>
-      <c r="G10" s="100"/>
-      <c r="H10" s="100"/>
+      <c r="F10" s="54"/>
+      <c r="G10" s="54"/>
+      <c r="H10" s="54"/>
     </row>
     <row r="11" spans="1:8">
-      <c r="A11" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="B11" s="33" t="s">
-        <v>32</v>
-      </c>
-      <c r="C11" s="5">
+      <c r="A11" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B11" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="C11" s="1">
         <v>0.1</v>
       </c>
-      <c r="D11" s="27">
+      <c r="D11" s="11">
         <v>1E-4</v>
       </c>
     </row>
     <row r="12" spans="1:8">
-      <c r="A12" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="B12" s="39" t="s">
-        <v>28</v>
-      </c>
-      <c r="C12" s="5">
+      <c r="A12" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B12" s="22" t="s">
+        <v>11</v>
+      </c>
+      <c r="C12" s="1">
         <f>(C10/G3)/C11</f>
         <v>0.10000750056254219</v>
       </c>
-      <c r="D12" s="27">
+      <c r="D12" s="11">
         <f>C12*SQRT((D10/C10)^2+(D11/C11)^2)</f>
         <v>1.250133759391975E-2</v>
       </c>
     </row>
     <row r="14" spans="1:8" ht="15" customHeight="1">
-      <c r="A14" s="98" t="s">
-        <v>60</v>
-      </c>
-      <c r="B14" s="98"/>
-      <c r="C14" s="98"/>
-      <c r="D14" s="98"/>
+      <c r="A14" s="53" t="s">
+        <v>41</v>
+      </c>
+      <c r="B14" s="53"/>
+      <c r="C14" s="53"/>
+      <c r="D14" s="53"/>
     </row>
     <row r="15" spans="1:8">
-      <c r="A15" s="34" t="s">
-        <v>29</v>
-      </c>
-      <c r="B15" s="35" t="s">
+      <c r="A15" s="17" t="s">
+        <v>12</v>
+      </c>
+      <c r="B15" s="18" t="s">
+        <v>1</v>
+      </c>
+      <c r="C15" s="17" t="s">
         <v>9</v>
       </c>
-      <c r="C15" s="34" t="s">
-        <v>26</v>
-      </c>
-      <c r="D15" s="34" t="s">
-        <v>10</v>
+      <c r="D15" s="17" t="s">
+        <v>2</v>
       </c>
     </row>
     <row r="16" spans="1:8">
-      <c r="A16" s="41" t="s">
-        <v>42</v>
-      </c>
-      <c r="B16" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="C16" s="27">
+      <c r="A16" s="24" t="s">
+        <v>25</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C16" s="11">
         <v>0.02</v>
       </c>
-      <c r="D16" s="27">
+      <c r="D16" s="11">
         <v>3.0000000000000001E-5</v>
       </c>
     </row>
     <row r="17" spans="1:12">
-      <c r="A17" s="41" t="s">
-        <v>36</v>
-      </c>
-      <c r="B17" s="5"/>
-      <c r="C17" s="5">
+      <c r="A17" s="24" t="s">
+        <v>19</v>
+      </c>
+      <c r="B17" s="1"/>
+      <c r="C17" s="1">
         <f>C12</f>
         <v>0.10000750056254219</v>
       </c>
-      <c r="D17" s="27">
+      <c r="D17" s="11">
         <f>D12</f>
         <v>1.250133759391975E-2</v>
       </c>
     </row>
     <row r="18" spans="1:12">
-      <c r="A18" s="41" t="s">
-        <v>43</v>
-      </c>
-      <c r="B18" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="C18" s="5">
+      <c r="A18" s="24" t="s">
+        <v>26</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C18" s="1">
         <v>0.1</v>
       </c>
-      <c r="D18" s="27">
+      <c r="D18" s="11">
         <v>1E-4</v>
       </c>
     </row>
     <row r="19" spans="1:12">
-      <c r="A19" s="41" t="s">
-        <v>37</v>
-      </c>
-      <c r="B19" s="5"/>
-      <c r="C19" s="5">
+      <c r="A19" s="24" t="s">
+        <v>20</v>
+      </c>
+      <c r="B19" s="1"/>
+      <c r="C19" s="1">
         <f>C16*C17/C18</f>
         <v>2.0001500112508439E-2</v>
       </c>
-      <c r="D19" s="42">
+      <c r="D19" s="25">
         <f>C19*SQRT((D18/C18)^2+(D17/C17)^2+(D16/C16)^2)</f>
         <v>2.5005275164468772E-3</v>
       </c>
     </row>
     <row r="22" spans="1:12">
-      <c r="A22" s="48"/>
-      <c r="B22" s="48"/>
-      <c r="C22" s="48"/>
-      <c r="D22" s="48"/>
+      <c r="A22" s="31"/>
+      <c r="B22" s="31"/>
+      <c r="C22" s="31"/>
+      <c r="D22" s="31"/>
     </row>
     <row r="23" spans="1:12">
-      <c r="A23" s="45" t="s">
-        <v>49</v>
-      </c>
-      <c r="B23" s="43"/>
-      <c r="C23" s="43"/>
-      <c r="D23" s="47"/>
-      <c r="E23" s="66" t="s">
-        <v>62</v>
+      <c r="A23" s="28" t="s">
+        <v>30</v>
+      </c>
+      <c r="B23" s="26"/>
+      <c r="C23" s="26"/>
+      <c r="D23" s="30"/>
+      <c r="E23" s="49" t="s">
+        <v>43</v>
       </c>
     </row>
     <row r="24" spans="1:12">
-      <c r="A24" s="46" t="s">
-        <v>29</v>
-      </c>
-      <c r="B24" s="32" t="s">
+      <c r="A24" s="29" t="s">
+        <v>12</v>
+      </c>
+      <c r="B24" s="15" t="s">
+        <v>1</v>
+      </c>
+      <c r="C24" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C24" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="D24" s="44" t="s">
-        <v>10</v>
+      <c r="D24" s="27" t="s">
+        <v>2</v>
       </c>
     </row>
     <row r="25" spans="1:12">
-      <c r="A25" s="46" t="s">
-        <v>44</v>
-      </c>
-      <c r="B25" s="33" t="s">
-        <v>11</v>
-      </c>
-      <c r="C25" s="60">
+      <c r="A25" s="29" t="s">
+        <v>27</v>
+      </c>
+      <c r="B25" s="16" t="s">
+        <v>3</v>
+      </c>
+      <c r="C25" s="43">
         <v>1.4999999999999999E-2</v>
       </c>
-      <c r="D25" s="64">
+      <c r="D25" s="47">
         <v>5.0000000000000002E-5</v>
       </c>
     </row>
     <row r="26" spans="1:12">
-      <c r="A26" s="49" t="s">
-        <v>52</v>
-      </c>
-      <c r="B26" s="49"/>
-      <c r="C26" s="49">
+      <c r="A26" s="32" t="s">
+        <v>33</v>
+      </c>
+      <c r="B26" s="32"/>
+      <c r="C26" s="32">
         <f>(C19*C25)/C5</f>
         <v>1.5001125084381327E-2</v>
       </c>
-      <c r="D26" s="50">
+      <c r="D26" s="33">
         <f>C26*SQRT( (D19/C19)^2 + (D25/C25)^2+(D5/C5)^2 )</f>
         <v>1.8895083398022662E-3</v>
       </c>
       <c r="L26" t="s">
-        <v>66</v>
+        <v>46</v>
       </c>
     </row>
     <row r="28" spans="1:12">
-      <c r="A28" s="51" t="s">
-        <v>50</v>
-      </c>
-      <c r="B28" s="51"/>
-      <c r="C28" s="51"/>
-      <c r="D28" s="52"/>
-      <c r="E28" s="66" t="s">
-        <v>62</v>
+      <c r="A28" s="34" t="s">
+        <v>31</v>
+      </c>
+      <c r="B28" s="34"/>
+      <c r="C28" s="34"/>
+      <c r="D28" s="35"/>
+      <c r="E28" s="49" t="s">
+        <v>43</v>
       </c>
     </row>
     <row r="29" spans="1:12">
-      <c r="A29" s="53" t="s">
-        <v>29</v>
-      </c>
-      <c r="B29" s="54" t="s">
+      <c r="A29" s="36" t="s">
+        <v>12</v>
+      </c>
+      <c r="B29" s="37" t="s">
+        <v>1</v>
+      </c>
+      <c r="C29" s="36" t="s">
         <v>9</v>
       </c>
-      <c r="C29" s="53" t="s">
-        <v>26</v>
-      </c>
-      <c r="D29" s="55" t="s">
-        <v>10</v>
+      <c r="D29" s="38" t="s">
+        <v>2</v>
       </c>
     </row>
     <row r="30" spans="1:12">
-      <c r="A30" s="53" t="s">
-        <v>44</v>
-      </c>
-      <c r="B30" s="53" t="s">
-        <v>11</v>
-      </c>
-      <c r="C30" s="67">
+      <c r="A30" s="36" t="s">
+        <v>27</v>
+      </c>
+      <c r="B30" s="36" t="s">
+        <v>3</v>
+      </c>
+      <c r="C30" s="50">
         <v>1.7000000000000001E-2</v>
       </c>
-      <c r="D30" s="65">
+      <c r="D30" s="48">
         <v>5.0000000000000002E-5</v>
       </c>
     </row>
     <row r="31" spans="1:12">
-      <c r="A31" s="56" t="s">
-        <v>53</v>
-      </c>
-      <c r="B31" s="56"/>
-      <c r="C31" s="56">
+      <c r="A31" s="39" t="s">
+        <v>34</v>
+      </c>
+      <c r="B31" s="39"/>
+      <c r="C31" s="39">
         <f>(C19*C30)/C5</f>
         <v>1.7001275095632176E-2</v>
       </c>
-      <c r="D31" s="57">
+      <c r="D31" s="40">
         <f>C31*SQRT( (D19/C19)^2 + (D30/C30)^2+(D5/C5)^2 )</f>
         <v>2.141276718246995E-3</v>
       </c>
     </row>
     <row r="32" spans="1:12">
-      <c r="A32" s="40"/>
-      <c r="B32" s="40"/>
-      <c r="C32" s="40"/>
-      <c r="D32" s="40"/>
+      <c r="A32" s="23"/>
+      <c r="B32" s="23"/>
+      <c r="C32" s="23"/>
+      <c r="D32" s="23"/>
     </row>
     <row r="33" spans="1:8">
-      <c r="A33" s="51" t="s">
-        <v>46</v>
-      </c>
-      <c r="B33" s="51"/>
-      <c r="C33" s="51"/>
-      <c r="D33" s="52"/>
-      <c r="E33" s="66" t="s">
-        <v>61</v>
+      <c r="A33" s="34" t="s">
+        <v>29</v>
+      </c>
+      <c r="B33" s="34"/>
+      <c r="C33" s="34"/>
+      <c r="D33" s="35"/>
+      <c r="E33" s="49" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="34" spans="1:8">
-      <c r="A34" s="53" t="s">
-        <v>29</v>
-      </c>
-      <c r="B34" s="54" t="s">
+      <c r="A34" s="36" t="s">
+        <v>12</v>
+      </c>
+      <c r="B34" s="37" t="s">
+        <v>1</v>
+      </c>
+      <c r="C34" s="36" t="s">
         <v>9</v>
       </c>
-      <c r="C34" s="53" t="s">
-        <v>26</v>
-      </c>
-      <c r="D34" s="55" t="s">
-        <v>10</v>
+      <c r="D34" s="38" t="s">
+        <v>2</v>
       </c>
     </row>
     <row r="35" spans="1:8">
-      <c r="A35" s="53" t="s">
-        <v>44</v>
-      </c>
-      <c r="B35" s="53" t="s">
-        <v>11</v>
-      </c>
-      <c r="C35" s="67">
+      <c r="A35" s="36" t="s">
+        <v>27</v>
+      </c>
+      <c r="B35" s="36" t="s">
+        <v>3</v>
+      </c>
+      <c r="C35" s="50">
         <v>4.4999999999999997E-3</v>
       </c>
-      <c r="D35" s="65">
+      <c r="D35" s="48">
         <v>5.0000000000000002E-5</v>
       </c>
     </row>
     <row r="36" spans="1:8">
-      <c r="A36" s="56" t="s">
-        <v>54</v>
-      </c>
-      <c r="B36" s="56"/>
-      <c r="C36" s="56">
+      <c r="A36" s="39" t="s">
+        <v>35</v>
+      </c>
+      <c r="B36" s="39"/>
+      <c r="C36" s="39">
         <f>(C12*C35)/C5</f>
         <v>2.2501687626571992E-2</v>
       </c>
-      <c r="D36" s="57">
+      <c r="D36" s="40">
         <f>C36*SQRT((D12/C12)^2+(D35/C35)^2+(D5/C5)^2)</f>
         <v>2.8439904969594105E-3</v>
       </c>
     </row>
     <row r="38" spans="1:8">
-      <c r="A38" s="51" t="s">
-        <v>51</v>
-      </c>
-      <c r="B38" s="51"/>
-      <c r="C38" s="51"/>
-      <c r="D38" s="52"/>
-      <c r="E38" s="66" t="s">
-        <v>61</v>
+      <c r="A38" s="34" t="s">
+        <v>32</v>
+      </c>
+      <c r="B38" s="34"/>
+      <c r="C38" s="34"/>
+      <c r="D38" s="35"/>
+      <c r="E38" s="49" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="39" spans="1:8">
-      <c r="A39" s="53" t="s">
-        <v>29</v>
-      </c>
-      <c r="B39" s="54" t="s">
+      <c r="A39" s="36" t="s">
+        <v>12</v>
+      </c>
+      <c r="B39" s="37" t="s">
+        <v>1</v>
+      </c>
+      <c r="C39" s="36" t="s">
         <v>9</v>
       </c>
-      <c r="C39" s="53" t="s">
-        <v>26</v>
-      </c>
-      <c r="D39" s="55" t="s">
-        <v>10</v>
+      <c r="D39" s="38" t="s">
+        <v>2</v>
       </c>
     </row>
     <row r="40" spans="1:8">
-      <c r="A40" s="53" t="s">
-        <v>44</v>
-      </c>
-      <c r="B40" s="53" t="s">
-        <v>11</v>
-      </c>
-      <c r="C40" s="67">
+      <c r="A40" s="36" t="s">
+        <v>27</v>
+      </c>
+      <c r="B40" s="36" t="s">
+        <v>3</v>
+      </c>
+      <c r="C40" s="50">
         <v>6.0000000000000001E-3</v>
       </c>
-      <c r="D40" s="65">
+      <c r="D40" s="48">
         <v>5.0000000000000002E-5</v>
       </c>
     </row>
     <row r="41" spans="1:8">
-      <c r="A41" s="56" t="s">
-        <v>55</v>
-      </c>
-      <c r="B41" s="56"/>
-      <c r="C41" s="56">
+      <c r="A41" s="39" t="s">
+        <v>36</v>
+      </c>
+      <c r="B41" s="39"/>
+      <c r="C41" s="39">
         <f>(C12*C40)/C5</f>
         <v>3.0002250168762661E-2</v>
       </c>
-      <c r="D41" s="57">
+      <c r="D41" s="40">
         <f>C41*SQRT( (D12/C12)^2 + (D40/C40)^2+(D5/C5)^2 )</f>
         <v>3.7855712252995496E-3</v>
       </c>
     </row>
     <row r="44" spans="1:8" ht="15" thickBot="1"/>
     <row r="45" spans="1:8" ht="16" thickTop="1" thickBot="1">
-      <c r="B45" s="16" t="s">
-        <v>15</v>
-      </c>
-      <c r="C45" s="17" t="s">
-        <v>12</v>
-      </c>
-      <c r="D45" s="18" t="s">
-        <v>10</v>
-      </c>
-      <c r="F45" s="12" t="s">
-        <v>13</v>
-      </c>
-      <c r="G45" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="H45" s="9" t="s">
-        <v>16</v>
+      <c r="B45" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C45" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="D45" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="F45" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G45" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H45" s="1" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="46" spans="1:8" ht="15" thickTop="1">
-      <c r="A46" s="61" t="s">
-        <v>56</v>
-      </c>
-      <c r="B46" s="19">
+      <c r="A46" s="44" t="s">
+        <v>37</v>
+      </c>
+      <c r="B46" s="5">
         <v>273</v>
       </c>
-      <c r="C46" s="20">
+      <c r="C46" s="6">
         <f>C26</f>
         <v>1.5001125084381327E-2</v>
       </c>
-      <c r="D46" s="21">
+      <c r="D46" s="7">
         <f>D26</f>
         <v>1.8895083398022662E-3</v>
       </c>
-      <c r="F46" s="13">
+      <c r="F46" s="1">
         <f>LN(C46)</f>
         <v>-4.1996300750672866</v>
       </c>
-      <c r="G46" s="7">
+      <c r="G46" s="1">
         <f>1/B46</f>
         <v>3.663003663003663E-3</v>
       </c>
-      <c r="H46" s="10">
+      <c r="H46" s="1">
         <f>D46/C46</f>
         <v>0.12595777511178541</v>
       </c>
     </row>
     <row r="47" spans="1:8">
-      <c r="A47" s="62" t="s">
-        <v>57</v>
-      </c>
-      <c r="B47" s="19">
+      <c r="A47" s="45" t="s">
+        <v>38</v>
+      </c>
+      <c r="B47" s="5">
         <v>283</v>
       </c>
-      <c r="C47" s="20">
+      <c r="C47" s="6">
         <f>C31</f>
         <v>1.7001275095632176E-2</v>
       </c>
-      <c r="D47" s="58">
+      <c r="D47" s="41">
         <f>D31</f>
         <v>2.141276718246995E-3</v>
       </c>
-      <c r="E47" t="s">
-        <v>63</v>
-      </c>
-      <c r="F47" s="13">
+      <c r="F47" s="1">
         <f t="shared" ref="F47:F49" si="0">LN(C47)</f>
         <v>-4.07446693211328</v>
       </c>
-      <c r="G47" s="7">
+      <c r="G47" s="1">
         <f t="shared" ref="G47:G49" si="1">1/B47</f>
         <v>3.5335689045936395E-3</v>
       </c>
-      <c r="H47" s="10">
-        <f t="shared" ref="H47:H49" si="2">LN(D47)</f>
-        <v>-6.1463530305301228</v>
+      <c r="H47" s="1">
+        <f t="shared" ref="H47:H49" si="2">D47/C47</f>
+        <v>0.125948007205478</v>
       </c>
     </row>
     <row r="48" spans="1:8">
-      <c r="A48" s="62" t="s">
-        <v>58</v>
-      </c>
-      <c r="B48" s="19">
+      <c r="A48" s="45" t="s">
+        <v>39</v>
+      </c>
+      <c r="B48" s="5">
         <v>297</v>
       </c>
-      <c r="C48" s="22">
+      <c r="C48" s="8">
         <f>C36</f>
         <v>2.2501687626571992E-2</v>
       </c>
-      <c r="D48" s="58">
+      <c r="D48" s="41">
         <f>D36</f>
         <v>2.8439904969594105E-3</v>
       </c>
-      <c r="F48" s="13">
+      <c r="F48" s="1">
         <f t="shared" si="0"/>
         <v>-3.794164966959122</v>
       </c>
-      <c r="G48" s="7">
+      <c r="G48" s="1">
         <f t="shared" si="1"/>
         <v>3.3670033670033669E-3</v>
       </c>
-      <c r="H48" s="10">
+      <c r="H48" s="1">
         <f t="shared" si="2"/>
-        <v>-5.8625471084815315</v>
+        <v>0.12639009767431728</v>
       </c>
     </row>
     <row r="49" spans="1:8" ht="15" thickBot="1">
-      <c r="A49" s="63" t="s">
-        <v>59</v>
-      </c>
-      <c r="B49" s="23">
+      <c r="A49" s="46" t="s">
+        <v>40</v>
+      </c>
+      <c r="B49" s="9">
         <v>323</v>
       </c>
-      <c r="C49" s="24">
+      <c r="C49" s="10">
         <f>C41</f>
         <v>3.0002250168762661E-2</v>
       </c>
-      <c r="D49" s="59">
+      <c r="D49" s="42">
         <f>D41</f>
         <v>3.7855712252995496E-3</v>
       </c>
-      <c r="F49" s="14">
+      <c r="F49" s="1">
         <f t="shared" si="0"/>
         <v>-3.5064828945073407</v>
       </c>
-      <c r="G49" s="11">
+      <c r="G49" s="1">
         <f t="shared" si="1"/>
         <v>3.0959752321981426E-3</v>
       </c>
-      <c r="H49" s="15">
+      <c r="H49" s="1">
         <f t="shared" si="2"/>
-        <v>-5.576558485302832</v>
+        <v>0.12617624358192173</v>
       </c>
     </row>
     <row r="50" spans="1:8" ht="15" thickTop="1"/>
